--- a/SDG_riparian_PEC/Consolidado_estadisticas_bosque_riparios_compiladas_2023-01-30.xlsx
+++ b/SDG_riparian_PEC/Consolidado_estadisticas_bosque_riparios_compiladas_2023-01-30.xlsx
@@ -1,31 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Mi unidad\git\SDG15_indicators\SDG_riparian_PEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{7F1C830E-3507-41FA-A10C-F82A3801E2AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70C487B-DA67-4F86-B876-21227C9E9CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="6600" yWindow="2430" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Consolidado_estadisticas_bosque" sheetId="1" r:id="rId1"/>
     <sheet name="Gráfica" sheetId="2" r:id="rId2"/>
     <sheet name="Diccionario" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>fecha</t>
   </si>
@@ -113,11 +123,17 @@
   <si>
     <t>https://drive.google.com/open?id=1UqRxnzP2AkwDWD6vmo8kHwHZbfvtaaiW&amp;authuser=ig299%40nau.edu&amp;usp=drive_fs</t>
   </si>
+  <si>
+    <t>pix_rip100m</t>
+  </si>
+  <si>
+    <t>ECUADOR</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1307,8 +1323,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.62192213473315838"/>
-          <c:y val="0.19965223097112858"/>
+          <c:x val="0.61358880139982497"/>
+          <c:y val="0.23335410956382188"/>
           <c:w val="0.33393328958880142"/>
           <c:h val="7.1090533170705988E-2"/>
         </c:manualLayout>
@@ -1947,15 +1963,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>80961</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>52386</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1981,101 +1997,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="estadisticas_bosque_riparios_co"/>
-      <sheetName val="Grafica"/>
-      <sheetName val="Diccionario"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>30m</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>100m</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>1990</v>
-          </cell>
-          <cell r="B2">
-            <v>55.853000482007396</v>
-          </cell>
-          <cell r="C2">
-            <v>55.757754134527502</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>2000</v>
-          </cell>
-          <cell r="B3">
-            <v>79.424950439135699</v>
-          </cell>
-          <cell r="C3">
-            <v>79.2111242016597</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>2008</v>
-          </cell>
-          <cell r="B4">
-            <v>49.960333597164599</v>
-          </cell>
-          <cell r="C4">
-            <v>49.854493076295</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>2014</v>
-          </cell>
-          <cell r="B5">
-            <v>49.116948500362497</v>
-          </cell>
-          <cell r="C5">
-            <v>48.888891469783104</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>2016</v>
-          </cell>
-          <cell r="B6">
-            <v>48.617550595502301</v>
-          </cell>
-          <cell r="C6">
-            <v>48.398801926743801</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>2018</v>
-          </cell>
-          <cell r="B7">
-            <v>48.909306743888898</v>
-          </cell>
-          <cell r="C7">
-            <v>48.6771845810486</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2374,690 +2295,456 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O5:O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2000</v>
       </c>
-      <c r="B2">
-        <v>75323633.000001907</v>
-      </c>
-      <c r="C2">
-        <v>47377573.000000097</v>
-      </c>
-      <c r="D2">
-        <v>0.62898682807823303</v>
-      </c>
-      <c r="E2">
-        <v>62.898682807823299</v>
-      </c>
-      <c r="F2">
+      <c r="B3">
         <v>244149140.99999699</v>
       </c>
-      <c r="G2">
+      <c r="C3">
         <v>154036370.00000101</v>
       </c>
-      <c r="H2">
-        <v>0.63091096437649496</v>
-      </c>
-      <c r="I2">
+      <c r="D3">
         <v>63.091096437649497</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="F3" s="4">
+        <v>1990</v>
+      </c>
+      <c r="G3" s="4">
+        <v>53383714.000001602</v>
+      </c>
+      <c r="H3" s="4">
+        <v>29765560.000000201</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.55757754134527504</v>
+      </c>
+      <c r="J3" s="4">
+        <f>+I3*100</f>
+        <v>55.757754134527502</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>2001</v>
       </c>
-      <c r="B3">
-        <v>75323633.000001907</v>
-      </c>
-      <c r="C3">
-        <v>47301152.000000201</v>
-      </c>
-      <c r="D3">
-        <v>0.62797225938370504</v>
-      </c>
-      <c r="E3">
-        <v>62.797225938370502</v>
-      </c>
-      <c r="F3">
+      <c r="B4">
         <v>244149140.99999699</v>
       </c>
-      <c r="G3">
+      <c r="C4">
         <v>153763933.00000101</v>
       </c>
-      <c r="H3">
-        <v>0.62979510134751104</v>
-      </c>
-      <c r="I3">
+      <c r="D4">
         <v>62.979510134751102</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="F4" s="4">
+        <v>2000</v>
+      </c>
+      <c r="G4" s="4">
+        <v>53383714.000001602</v>
+      </c>
+      <c r="H4" s="4">
+        <v>42285840.000000097</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.79211124201659699</v>
+      </c>
+      <c r="J4" s="4">
+        <f>+I4*100</f>
+        <v>79.2111242016597</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>2002</v>
       </c>
-      <c r="B4">
-        <v>75323633.000001907</v>
-      </c>
-      <c r="C4">
-        <v>47238938</v>
-      </c>
-      <c r="D4">
-        <v>0.62714630347156597</v>
-      </c>
-      <c r="E4">
-        <v>62.7146303471566</v>
-      </c>
-      <c r="F4">
+      <c r="B5">
         <v>244149140.99999699</v>
       </c>
-      <c r="G4">
+      <c r="C5">
         <v>153545342.00000301</v>
       </c>
-      <c r="H4">
-        <v>0.62889978384156797</v>
-      </c>
-      <c r="I4">
+      <c r="D5">
         <v>62.889978384156798</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="F5" s="4">
+        <v>2008</v>
+      </c>
+      <c r="G5" s="4">
+        <v>53383714.000001602</v>
+      </c>
+      <c r="H5" s="4">
+        <v>26614179.999999899</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.49854493076294998</v>
+      </c>
+      <c r="J5" s="4">
+        <f>+I5*100</f>
+        <v>49.854493076295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>2003</v>
       </c>
-      <c r="B5">
-        <v>75323633.000001907</v>
-      </c>
-      <c r="C5">
-        <v>47190518</v>
-      </c>
-      <c r="D5">
-        <v>0.62650347733491296</v>
-      </c>
-      <c r="E5">
-        <v>62.650347733491301</v>
-      </c>
-      <c r="F5">
+      <c r="B6">
         <v>244149140.99999699</v>
       </c>
-      <c r="G5">
+      <c r="C6">
         <v>153375789.99999699</v>
       </c>
-      <c r="H5">
-        <v>0.62820532307340404</v>
-      </c>
-      <c r="I5">
+      <c r="D6">
         <v>62.8205323073404</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="F6" s="4">
+        <v>2014</v>
+      </c>
+      <c r="G6" s="4">
+        <v>53383714.000001602</v>
+      </c>
+      <c r="H6" s="4">
+        <v>26098706.000000201</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.48888891469783102</v>
+      </c>
+      <c r="J6" s="4">
+        <f>+I6*100</f>
+        <v>48.888891469783104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>2004</v>
       </c>
-      <c r="B6">
-        <v>75323633.000001907</v>
-      </c>
-      <c r="C6">
-        <v>47109137.999999702</v>
-      </c>
-      <c r="D6">
-        <v>0.62542307272935904</v>
-      </c>
-      <c r="E6">
-        <v>62.542307272935901</v>
-      </c>
-      <c r="F6">
+      <c r="B7">
         <v>244149140.99999699</v>
       </c>
-      <c r="G6">
+      <c r="C7">
         <v>153090633.00000101</v>
       </c>
-      <c r="H6">
-        <v>0.62703736074173899</v>
-      </c>
-      <c r="I6">
+      <c r="D7">
         <v>62.703736074173896</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="F7" s="4">
+        <v>2016</v>
+      </c>
+      <c r="G7" s="4">
+        <v>53383714.000001602</v>
+      </c>
+      <c r="H7" s="4">
+        <v>25837078.000000201</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.48398801926743801</v>
+      </c>
+      <c r="J7" s="4">
+        <f>+I7*100</f>
+        <v>48.398801926743801</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>2005</v>
       </c>
-      <c r="B7">
-        <v>75323633.000001907</v>
-      </c>
-      <c r="C7">
-        <v>47027512.000000201</v>
-      </c>
-      <c r="D7">
-        <v>0.62433940221655304</v>
-      </c>
-      <c r="E7">
-        <v>62.433940221655298</v>
-      </c>
-      <c r="F7">
+      <c r="B8">
         <v>244149140.99999699</v>
       </c>
-      <c r="G7">
+      <c r="C8">
         <v>152802105.99999899</v>
       </c>
-      <c r="H7">
-        <v>0.62585559537152102</v>
-      </c>
-      <c r="I7">
+      <c r="D8">
         <v>62.585559537152101</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="F8" s="4">
+        <v>2018</v>
+      </c>
+      <c r="G8" s="4">
+        <v>53383714.000001602</v>
+      </c>
+      <c r="H8" s="4">
+        <v>25985688.999999899</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.48677184581048599</v>
+      </c>
+      <c r="J8" s="4">
+        <f>+I8*100</f>
+        <v>48.6771845810486</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>2006</v>
       </c>
-      <c r="B8">
-        <v>75323633.000001907</v>
-      </c>
-      <c r="C8">
-        <v>46960994</v>
-      </c>
-      <c r="D8">
-        <v>0.623456306203377</v>
-      </c>
-      <c r="E8">
-        <v>62.345630620337701</v>
-      </c>
-      <c r="F8">
+      <c r="B9">
         <v>244149140.99999699</v>
       </c>
-      <c r="G8">
+      <c r="C9">
         <v>152568597.99999899</v>
       </c>
-      <c r="H8">
-        <v>0.62489917996475997</v>
-      </c>
-      <c r="I8">
+      <c r="D9">
         <v>62.489917996476002</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>2007</v>
       </c>
-      <c r="B9">
-        <v>75323633.000001907</v>
-      </c>
-      <c r="C9">
-        <v>46868265.999999903</v>
-      </c>
-      <c r="D9">
-        <v>0.62222524503031695</v>
-      </c>
-      <c r="E9">
-        <v>62.2225245030317</v>
-      </c>
-      <c r="F9">
+      <c r="B10">
         <v>244149140.99999699</v>
       </c>
-      <c r="G9">
+      <c r="C10">
         <v>152245135.999998</v>
       </c>
-      <c r="H9">
-        <v>0.62357432582570405</v>
-      </c>
-      <c r="I9">
+      <c r="D10">
         <v>62.357432582570397</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>2008</v>
       </c>
-      <c r="B10">
-        <v>75323633.000001907</v>
-      </c>
-      <c r="C10">
-        <v>46779301.000000097</v>
-      </c>
-      <c r="D10">
-        <v>0.62104414161753196</v>
-      </c>
-      <c r="E10">
-        <v>62.104414161753198</v>
-      </c>
-      <c r="F10">
+      <c r="B11">
         <v>244149140.99999699</v>
       </c>
-      <c r="G10">
+      <c r="C11">
         <v>151936045.000002</v>
       </c>
-      <c r="H10">
-        <v>0.62230833324948798</v>
-      </c>
-      <c r="I10">
+      <c r="D11">
         <v>62.230833324948797</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>2009</v>
       </c>
-      <c r="B11">
-        <v>75323633.000001907</v>
-      </c>
-      <c r="C11">
-        <v>46675521</v>
-      </c>
-      <c r="D11">
-        <v>0.61966635358651401</v>
-      </c>
-      <c r="E11">
-        <v>61.966635358651402</v>
-      </c>
-      <c r="F11">
+      <c r="B12">
         <v>244149140.99999699</v>
       </c>
-      <c r="G11">
+      <c r="C12">
         <v>151572185.999998</v>
       </c>
-      <c r="H11">
-        <v>0.62081801876993004</v>
-      </c>
-      <c r="I11">
+      <c r="D12">
         <v>62.081801876992998</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>2010</v>
       </c>
-      <c r="B12">
-        <v>75323633.000001907</v>
-      </c>
-      <c r="C12">
-        <v>46590135.999999799</v>
-      </c>
-      <c r="D12">
-        <v>0.61853277841761301</v>
-      </c>
-      <c r="E12">
-        <v>61.853277841761297</v>
-      </c>
-      <c r="F12">
+      <c r="B13">
         <v>244149140.99999699</v>
       </c>
-      <c r="G12">
+      <c r="C13">
         <v>151276243</v>
       </c>
-      <c r="H12">
-        <v>0.619605878523248</v>
-      </c>
-      <c r="I12">
+      <c r="D13">
         <v>61.960587852324799</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>2011</v>
       </c>
-      <c r="B13">
-        <v>75323633.000001907</v>
-      </c>
-      <c r="C13">
-        <v>46509579.000000201</v>
-      </c>
-      <c r="D13">
-        <v>0.61746329999774396</v>
-      </c>
-      <c r="E13">
-        <v>61.746329999774403</v>
-      </c>
-      <c r="F13">
+      <c r="B14">
         <v>244149140.99999699</v>
       </c>
-      <c r="G13">
+      <c r="C14">
         <v>150997579.99999899</v>
       </c>
-      <c r="H13">
-        <v>0.61846451468776997</v>
-      </c>
-      <c r="I13">
+      <c r="D14">
         <v>61.846451468776998</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>2012</v>
       </c>
-      <c r="B14">
-        <v>75323633.000001907</v>
-      </c>
-      <c r="C14">
-        <v>46371045.999999903</v>
-      </c>
-      <c r="D14">
-        <v>0.61562412954774504</v>
-      </c>
-      <c r="E14">
-        <v>61.562412954774501</v>
-      </c>
-      <c r="F14">
+      <c r="B15">
         <v>244149140.99999699</v>
       </c>
-      <c r="G14">
+      <c r="C15">
         <v>150521549.999998</v>
       </c>
-      <c r="H14">
-        <v>0.61651476381807202</v>
-      </c>
-      <c r="I14">
+      <c r="D15">
         <v>61.6514763818072</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>2013</v>
       </c>
-      <c r="B15">
-        <v>75323633.000001907</v>
-      </c>
-      <c r="C15">
-        <v>46278144</v>
-      </c>
-      <c r="D15">
-        <v>0.61439075834272205</v>
-      </c>
-      <c r="E15">
-        <v>61.439075834272202</v>
-      </c>
-      <c r="F15">
+      <c r="B16">
         <v>244149140.99999699</v>
       </c>
-      <c r="G15">
+      <c r="C16">
         <v>150196159</v>
       </c>
-      <c r="H15">
-        <v>0.61518200877062301</v>
-      </c>
-      <c r="I15">
+      <c r="D16">
         <v>61.518200877062299</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>2014</v>
       </c>
-      <c r="B16">
-        <v>75323633.000001907</v>
-      </c>
-      <c r="C16">
-        <v>46173737.000000201</v>
-      </c>
-      <c r="D16">
-        <v>0.61300464623100503</v>
-      </c>
-      <c r="E16">
-        <v>61.300464623100503</v>
-      </c>
-      <c r="F16">
+      <c r="B17">
         <v>244149140.99999699</v>
       </c>
-      <c r="G16">
+      <c r="C17">
         <v>149832398.99999699</v>
       </c>
-      <c r="H16">
-        <v>0.61369209978092398</v>
-      </c>
-      <c r="I16">
+      <c r="D17">
         <v>61.3692099780924</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>2015</v>
       </c>
-      <c r="B17">
-        <v>75323633.000001907</v>
-      </c>
-      <c r="C17">
-        <v>46090901.000000097</v>
-      </c>
-      <c r="D17">
-        <v>0.61190491170279704</v>
-      </c>
-      <c r="E17">
-        <v>61.190491170279699</v>
-      </c>
-      <c r="F17">
+      <c r="B18">
         <v>244149140.99999699</v>
       </c>
-      <c r="G17">
+      <c r="C18">
         <v>149544847.99999699</v>
       </c>
-      <c r="H17">
-        <v>0.61251433196727401</v>
-      </c>
-      <c r="I17">
+      <c r="D18">
         <v>61.251433196727398</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>2016</v>
       </c>
-      <c r="B18">
-        <v>75323633.000001907</v>
-      </c>
-      <c r="C18">
-        <v>45961736.999999903</v>
-      </c>
-      <c r="D18">
-        <v>0.61019012452570798</v>
-      </c>
-      <c r="E18">
-        <v>61.019012452570799</v>
-      </c>
-      <c r="F18">
+      <c r="B19">
         <v>244149140.99999699</v>
       </c>
-      <c r="G18">
+      <c r="C19">
         <v>149093705.00000301</v>
       </c>
-      <c r="H18">
-        <v>0.61066651469400302</v>
-      </c>
-      <c r="I18">
+      <c r="D19">
         <v>61.066651469400298</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>2017</v>
       </c>
-      <c r="B19">
-        <v>75323633.000001907</v>
-      </c>
-      <c r="C19">
-        <v>45761808.999999903</v>
-      </c>
-      <c r="D19">
-        <v>0.60753587124506803</v>
-      </c>
-      <c r="E19">
-        <v>60.753587124506801</v>
-      </c>
-      <c r="F19">
+      <c r="B20">
         <v>244149140.99999699</v>
       </c>
-      <c r="G19">
+      <c r="C20">
         <v>148408113</v>
       </c>
-      <c r="H19">
-        <v>0.60785842781237598</v>
-      </c>
-      <c r="I19">
+      <c r="D20">
         <v>60.785842781237598</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>2018</v>
       </c>
-      <c r="B20">
-        <v>75323633.000001907</v>
-      </c>
-      <c r="C20">
-        <v>45623291.000000201</v>
-      </c>
-      <c r="D20">
-        <v>0.60569689993576303</v>
-      </c>
-      <c r="E20">
-        <v>60.569689993576297</v>
-      </c>
-      <c r="F20">
+      <c r="B21">
         <v>244149140.99999699</v>
       </c>
-      <c r="G20">
+      <c r="C21">
         <v>147928874.00000101</v>
       </c>
-      <c r="H20">
-        <v>0.60589553333715496</v>
-      </c>
-      <c r="I20">
+      <c r="D21">
         <v>60.5895533337155</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>2019</v>
       </c>
-      <c r="B21">
-        <v>75323633.000001907</v>
-      </c>
-      <c r="C21">
-        <v>45500252.999999903</v>
-      </c>
-      <c r="D21">
-        <v>0.60406344181511695</v>
-      </c>
-      <c r="E21">
-        <v>60.406344181511699</v>
-      </c>
-      <c r="F21">
+      <c r="B22">
         <v>244149140.99999699</v>
       </c>
-      <c r="G21">
+      <c r="C22">
         <v>147501554</v>
       </c>
-      <c r="H21">
-        <v>0.60414529166826803</v>
-      </c>
-      <c r="I21">
+      <c r="D22">
         <v>60.414529166826803</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>2020</v>
       </c>
-      <c r="B22">
-        <v>75323633.000001907</v>
-      </c>
-      <c r="C22">
-        <v>45350446.000000298</v>
-      </c>
-      <c r="D22">
-        <v>0.602074597225005</v>
-      </c>
-      <c r="E22">
-        <v>60.207459722500502</v>
-      </c>
-      <c r="F22">
+      <c r="B23">
         <v>244149140.99999699</v>
       </c>
-      <c r="G22">
+      <c r="C23">
         <v>146982855.00000101</v>
       </c>
-      <c r="H22">
-        <v>0.60202077467068704</v>
-      </c>
-      <c r="I22">
+      <c r="D23">
         <v>60.202077467068698</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>2021</v>
       </c>
-      <c r="B23">
-        <v>75323633.000001907</v>
-      </c>
-      <c r="C23">
-        <v>45230501.999999903</v>
-      </c>
-      <c r="D23">
-        <v>0.600482215190003</v>
-      </c>
-      <c r="E23">
-        <v>60.0482215190003</v>
-      </c>
-      <c r="F23">
+      <c r="B24">
         <v>244149140.99999699</v>
       </c>
-      <c r="G23">
+      <c r="C24">
         <v>146567932.00000301</v>
       </c>
-      <c r="H23">
-        <v>0.60032130934265404</v>
-      </c>
-      <c r="I23">
+      <c r="D24">
         <v>60.032130934265403</v>
       </c>
     </row>
@@ -3067,11 +2754,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3341,11 +3028,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3482,7 +3169,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
